--- a/안전.xlsx
+++ b/안전.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeewo\Desktop\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeewo\Desktop\Dataset\Chatbot_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -86,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +99,22 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -125,11 +141,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -418,70 +437,72 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="180.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="54" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="54" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" ht="108" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" ht="54" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>